--- a/case/AutoLink_api_tests.xlsx
+++ b/case/AutoLink_api_tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="20160" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -81,6 +81,9 @@
     <t>期望结果</t>
   </si>
   <si>
+    <t>是否执行</t>
+  </si>
+  <si>
     <t>api_auth</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
     <t>{"status": "success", "msg": "login success"}</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>登录失败</t>
   </si>
   <si>
@@ -217,6 +223,9 @@
   </si>
   <si>
     <t>{"status": "fail", "msg": "用户不存在，删除失败"}</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -226,10 +235,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +261,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,15 +300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +319,22 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,22 +347,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -336,6 +363,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -343,7 +377,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,38 +385,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,187 +407,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,11 +616,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,37 +685,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,172 +713,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,14 +885,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1240,12 +1236,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F17:F19"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1293,7 +1289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1327,386 +1323,425 @@
       <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" ht="60" spans="1:11">
-      <c r="A3" s="7">
+    <row r="3" ht="60" spans="1:12">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="9">
+      <c r="I3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="6">
         <v>201</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>28</v>
+      <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" ht="60" spans="1:11">
-      <c r="A4" s="7">
+    <row r="4" ht="60" spans="1:12">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="6">
+        <v>201</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="7" t="s">
+    </row>
+    <row r="5" ht="60" spans="1:12">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6">
+        <v>201</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="60" spans="1:12">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="6">
         <v>201</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>32</v>
+      <c r="K6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" ht="60" spans="1:11">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9">
+    <row r="7" ht="72" spans="1:12">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="6">
         <v>201</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>35</v>
+      <c r="K7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" ht="60" spans="1:11">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="8" t="s">
+    <row r="8" ht="72" spans="1:12">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="6">
         <v>201</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="48" spans="1:12">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6">
+        <v>201</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" ht="72" spans="1:11">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="8" t="s">
+    <row r="10" ht="48" spans="1:12">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="H10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6">
         <v>201</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>44</v>
+      <c r="K10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" ht="72" spans="1:11">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="8" t="s">
+    <row r="11" ht="48" spans="1:12">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="H11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="6">
         <v>201</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>49</v>
+      <c r="K11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" ht="48" spans="1:11">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="8" t="s">
+    <row r="12" ht="96" spans="1:12">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9">
+      <c r="H12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="6">
         <v>201</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>53</v>
+      <c r="K12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="10" ht="48" spans="1:11">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="8" t="s">
+    <row r="13" ht="60" spans="1:12">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9">
+      <c r="H13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="6">
         <v>201</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>55</v>
+      <c r="K13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="11" ht="48" spans="1:11">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="9">
-        <v>201</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" ht="96" spans="1:11">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="9">
-        <v>201</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" ht="60" spans="1:11">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="9">
-        <v>201</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="7">
+    <row r="14" spans="1:12">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8"/>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
